--- a/data/trans_bre/P1804_2016_2023-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1804_2016_2023-Clase-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>6.086737243442482</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>2.373986721536955</v>
+        <v>2.373986721536957</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>0.8489907921130373</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.2683372136137627</v>
+        <v>0.2683372136137628</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.455452594739582</v>
+        <v>1.845487303545928</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.164826479515638</v>
+        <v>-1.349901436689756</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.1783890353831761</v>
+        <v>0.141135914115757</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.114466357251517</v>
+        <v>-0.1267449790389566</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.76474351907172</v>
+        <v>10.94172224412508</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.039169645949495</v>
+        <v>5.897114452054849</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2.124901957599671</v>
+        <v>1.963650470643709</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.8579809783083724</v>
+        <v>0.8591733503140934</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>5.6924335908918</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.895656724758349</v>
+        <v>1.89565672475835</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>1.210651501212062</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.2035080484571542</v>
+        <v>0.2035080484571544</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.135362928142905</v>
+        <v>2.08081351791944</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.556869494998717</v>
+        <v>-2.916339765631777</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.24756939179931</v>
+        <v>0.3010405027382038</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2133617321919782</v>
+        <v>-0.2540594846498032</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.34245222654117</v>
+        <v>10.19995986918804</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.865393142175831</v>
+        <v>6.092991418776449</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.155144286517455</v>
+        <v>2.959076362465019</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.8270176485241036</v>
+        <v>0.8289984647909293</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9974427391190767</v>
+        <v>0.7208759531975845</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.92267547177445</v>
+        <v>-3.450117130051627</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.114256637006967</v>
+        <v>0.1017651382633495</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.3276625540875291</v>
+        <v>-0.3844938500726102</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.60338052310382</v>
+        <v>11.41339025354683</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.94897026004525</v>
+        <v>7.709055395920583</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>2.213955680589964</v>
+        <v>2.264355773873019</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1.293486586804429</v>
+        <v>1.251533727079528</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8505025632192776</v>
+        <v>0.4175535717418813</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.168127172598707</v>
+        <v>2.224782997354648</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.08677015632744021</v>
+        <v>0.04972607363334991</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.40285770325347</v>
+        <v>0.4058876002240744</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.961590935983192</v>
+        <v>5.629539381076365</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.555127196985731</v>
+        <v>6.701475675206976</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.006769876700986</v>
+        <v>0.932887978035654</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.943593806357442</v>
+        <v>1.930326109358095</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>3.995349407608095</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>3.003866132511643</v>
+        <v>3.003866132511644</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>0.6960426696856816</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.5585695516128559</v>
+        <v>0.558569551612856</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.160414590267462</v>
+        <v>1.162360726521112</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.3884609405303989</v>
+        <v>-0.2113289299768603</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.1557765861552619</v>
+        <v>0.1448448304750699</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.07554563257279186</v>
+        <v>-0.07582142283278774</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.057354924587369</v>
+        <v>6.919462628699772</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.677776416286434</v>
+        <v>5.729405121064197</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1.658058596116808</v>
+        <v>1.65641367251252</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.590484760833179</v>
+        <v>1.450624627850839</v>
       </c>
     </row>
     <row r="19">
@@ -912,13 +912,13 @@
         <v>2.73775685196624</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>3.301922925058957</v>
+        <v>3.301922925058956</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.4785603916740873</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>2.073120144663598</v>
+        <v>2.073120144663597</v>
       </c>
     </row>
     <row r="20">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-1.043944981426171</v>
+        <v>-1.018359045639821</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.09245600341209313</v>
+        <v>-0.7301184301921665</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1525708255021735</v>
+        <v>-0.1397134296924341</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1904376109670441</v>
+        <v>-0.3432689169416775</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>5.881178267710654</v>
+        <v>5.786794525182469</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>5.114606068414177</v>
+        <v>4.920195045675844</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.65649145786189</v>
+        <v>1.568368784739553</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>16.74257360497705</v>
+        <v>12.98042099722178</v>
       </c>
     </row>
     <row r="22">
@@ -976,13 +976,13 @@
         <v>3.653107512388487</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>2.208755854072976</v>
+        <v>2.208755854072973</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0.5788026622944976</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>0.3555370055958941</v>
+        <v>0.3555370055958936</v>
       </c>
     </row>
     <row r="23">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.279888903727297</v>
+        <v>2.36978988768763</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7956342786017219</v>
+        <v>0.8387108954180175</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>0.3311317723776322</v>
+        <v>0.3508262136015827</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.1081728064292238</v>
+        <v>0.1232844610051082</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.133644310573032</v>
+        <v>5.206131596634324</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.359129154903989</v>
+        <v>3.439471747148776</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>0.8919828095971354</v>
+        <v>0.9151755010705533</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.608414930426622</v>
+        <v>0.6178079573911345</v>
       </c>
     </row>
     <row r="25">
